--- a/互联网国企公务员黑红榜/实习公司定向.xlsx
+++ b/互联网国企公务员黑红榜/实习公司定向.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18320"/>
+    <workbookView windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>公司名称</t>
   </si>
@@ -30,16 +30,22 @@
   <si>
     <t>不加班 965</t>
   </si>
+  <si>
+    <t>招商信用卡</t>
+  </si>
+  <si>
+    <t>七点下班</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -47,20 +53,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,14 +79,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -103,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,17 +101,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +124,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -155,8 +161,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,22 +202,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,13 +216,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,25 +276,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,139 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,15 +407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -432,16 +429,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,176 +493,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,7 +982,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1008,9 +1014,15 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>400</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>

--- a/互联网国企公务员黑红榜/实习公司定向.xlsx
+++ b/互联网国企公务员黑红榜/实习公司定向.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16380"/>
+    <workbookView windowWidth="28000" windowHeight="16180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>公司名称</t>
   </si>
@@ -36,6 +36,15 @@
   <si>
     <t>七点下班</t>
   </si>
+  <si>
+    <t>中信证券</t>
+  </si>
+  <si>
+    <t>很低</t>
+  </si>
+  <si>
+    <t>实习好留</t>
+  </si>
 </sst>
 </file>
 
@@ -56,6 +65,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -65,7 +81,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,20 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -101,6 +194,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -108,47 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,52 +211,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,25 +225,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,157 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,8 +431,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,26 +476,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -478,17 +491,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,148 +519,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -982,7 +991,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1025,9 +1034,15 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>

--- a/互联网国企公务员黑红榜/实习公司定向.xlsx
+++ b/互联网国企公务员黑红榜/实习公司定向.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16180"/>
+    <workbookView windowHeight="18320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>公司名称</t>
   </si>
@@ -45,15 +45,21 @@
   <si>
     <t>实习好留</t>
   </si>
+  <si>
+    <t>中央汇金</t>
+  </si>
+  <si>
+    <t>管钱的  不多解释</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -66,6 +72,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -80,8 +93,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,14 +116,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +162,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -132,6 +192,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -141,7 +208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,68 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,25 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,151 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,15 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,22 +438,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,6 +497,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -501,166 +522,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -991,7 +997,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1045,9 +1051,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>

--- a/互联网国企公务员黑红榜/实习公司定向.xlsx
+++ b/互联网国企公务员黑红榜/实习公司定向.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>公司名称</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>管钱的  不多解释</t>
+  </si>
+  <si>
+    <t>粉笔教育</t>
+  </si>
+  <si>
+    <t>在中关村</t>
+  </si>
+  <si>
+    <t>字节  数据中台</t>
+  </si>
+  <si>
+    <t>java 在中关村</t>
   </si>
 </sst>
 </file>
@@ -57,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -93,6 +105,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -101,59 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -164,59 +168,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,49 +249,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,127 +411,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,16 +450,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,21 +512,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -497,113 +526,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,55 +624,55 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,7 +1009,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="2"/>
@@ -1060,14 +1072,26 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>600</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>400</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
